--- a/backend/Overstock supplies other companies.xlsx
+++ b/backend/Overstock supplies other companies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krita\Asset\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9558D11-E442-496B-A19F-731F489F415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E93CB33-6370-4263-B54D-A7AD4A50008B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="18432" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Available 2025" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="303">
   <si>
     <t>Date</t>
   </si>
@@ -388,9 +388,6 @@
     <t>ESN2SA</t>
   </si>
   <si>
-    <t>8,(1*2025)</t>
-  </si>
-  <si>
     <t>ESON  Nasal Mask</t>
   </si>
   <si>
@@ -898,16 +895,10 @@
     <t xml:space="preserve">CPAP tubing </t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
     <t>Nivairo Non-Vented Hospital Full Face Mask</t>
   </si>
   <si>
     <t>RT046S</t>
-  </si>
-  <si>
-    <t>3,4</t>
   </si>
   <si>
     <t>RT046M</t>
@@ -976,8 +967,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1319,18 +1311,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="30.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1355,19 +1347,19 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1384,19 +1376,19 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>643131378916</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2024</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1413,19 +1405,19 @@
       <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1442,19 +1434,19 @@
       <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2024</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1471,19 +1463,19 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1500,19 +1492,19 @@
       <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2024</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -1529,19 +1521,19 @@
       <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1558,19 +1550,19 @@
       <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1587,19 +1579,19 @@
       <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2024</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1616,19 +1608,19 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2024</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1645,19 +1637,19 @@
       <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1674,19 +1666,19 @@
       <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2025</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1703,19 +1695,19 @@
       <c r="H13" t="s">
         <v>13</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>817783020138</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2025</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1732,19 +1724,19 @@
       <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2024</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
@@ -1761,19 +1753,19 @@
       <c r="H15" t="s">
         <v>13</v>
       </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -1790,19 +1782,19 @@
       <c r="H16" t="s">
         <v>13</v>
       </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2024</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>
@@ -1819,19 +1811,19 @@
       <c r="H17" t="s">
         <v>13</v>
       </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2024</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
@@ -1848,19 +1840,19 @@
       <c r="H18" t="s">
         <v>13</v>
       </c>
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2024</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
@@ -1877,19 +1869,19 @@
       <c r="H19" t="s">
         <v>13</v>
       </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2025</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>40</v>
@@ -1906,19 +1898,19 @@
       <c r="H20" t="s">
         <v>13</v>
       </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2025</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
@@ -1935,19 +1927,19 @@
       <c r="H21" t="s">
         <v>13</v>
       </c>
-      <c r="I21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>58</v>
@@ -1964,19 +1956,19 @@
       <c r="H22" t="s">
         <v>13</v>
       </c>
-      <c r="I22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>62</v>
@@ -1993,19 +1985,19 @@
       <c r="H23" t="s">
         <v>13</v>
       </c>
-      <c r="I23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2024</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
@@ -2022,19 +2014,19 @@
       <c r="H24" t="s">
         <v>13</v>
       </c>
-      <c r="I24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2024</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>40</v>
@@ -2051,19 +2043,19 @@
       <c r="H25" t="s">
         <v>13</v>
       </c>
-      <c r="I25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2024</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>40</v>
@@ -2080,19 +2072,19 @@
       <c r="H26" t="s">
         <v>13</v>
       </c>
-      <c r="I26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2024</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
@@ -2109,19 +2101,19 @@
       <c r="H27" t="s">
         <v>13</v>
       </c>
-      <c r="I27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2024</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>40</v>
@@ -2138,19 +2130,19 @@
       <c r="H28" t="s">
         <v>13</v>
       </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2024</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
@@ -2167,19 +2159,19 @@
       <c r="H29" t="s">
         <v>13</v>
       </c>
-      <c r="I29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2024</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>76</v>
@@ -2196,19 +2188,19 @@
       <c r="H30" t="s">
         <v>13</v>
       </c>
-      <c r="I30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2024</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>76</v>
@@ -2225,19 +2217,19 @@
       <c r="H31" t="s">
         <v>13</v>
       </c>
-      <c r="I31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>81</v>
@@ -2254,19 +2246,19 @@
       <c r="H32" t="s">
         <v>13</v>
       </c>
-      <c r="I32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>81</v>
@@ -2283,19 +2275,19 @@
       <c r="H33" t="s">
         <v>13</v>
       </c>
-      <c r="I33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>81</v>
@@ -2312,19 +2304,19 @@
       <c r="H34" t="s">
         <v>13</v>
       </c>
-      <c r="I34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2024</v>
       </c>
       <c r="B35">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>76</v>
@@ -2341,19 +2333,19 @@
       <c r="H35" t="s">
         <v>13</v>
       </c>
-      <c r="I35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2025</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>90</v>
@@ -2370,19 +2362,19 @@
       <c r="H36" t="s">
         <v>13</v>
       </c>
-      <c r="I36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2024</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>93</v>
@@ -2399,19 +2391,19 @@
       <c r="H37" t="s">
         <v>13</v>
       </c>
-      <c r="I37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2024</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>96</v>
@@ -2428,19 +2420,19 @@
       <c r="H38" t="s">
         <v>13</v>
       </c>
-      <c r="I38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>99</v>
@@ -2457,19 +2449,19 @@
       <c r="H39" t="s">
         <v>13</v>
       </c>
-      <c r="I39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2025</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>58</v>
@@ -2486,19 +2478,19 @@
       <c r="H40" t="s">
         <v>13</v>
       </c>
-      <c r="I40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2024</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>105</v>
@@ -2515,19 +2507,19 @@
       <c r="H41" t="s">
         <v>13</v>
       </c>
-      <c r="I41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2023</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>105</v>
@@ -2544,19 +2536,19 @@
       <c r="H42" t="s">
         <v>13</v>
       </c>
-      <c r="I42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2024</v>
       </c>
       <c r="B43">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>105</v>
@@ -2573,19 +2565,19 @@
       <c r="H43" t="s">
         <v>13</v>
       </c>
-      <c r="I43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2024</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>105</v>
@@ -2602,19 +2594,19 @@
       <c r="H44" t="s">
         <v>13</v>
       </c>
-      <c r="I44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>13</v>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
       </c>
       <c r="D45" t="s">
         <v>81</v>
@@ -2631,19 +2623,19 @@
       <c r="H45" t="s">
         <v>13</v>
       </c>
-      <c r="I45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2024</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>105</v>
@@ -2660,19 +2652,19 @@
       <c r="H46" t="s">
         <v>13</v>
       </c>
-      <c r="I46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>13</v>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>81</v>
@@ -2689,19 +2681,19 @@
       <c r="H47" t="s">
         <v>13</v>
       </c>
-      <c r="I47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2024</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -2718,19 +2710,19 @@
       <c r="H48" t="s">
         <v>13</v>
       </c>
-      <c r="I48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
-      <c r="B49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" t="s">
-        <v>13</v>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
       </c>
       <c r="D49" t="s">
         <v>81</v>
@@ -2747,25 +2739,25 @@
       <c r="H49" t="s">
         <v>13</v>
       </c>
-      <c r="I49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2024</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
         <v>121</v>
-      </c>
-      <c r="C50">
-        <v>40</v>
-      </c>
-      <c r="D50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" t="s">
-        <v>122</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -2776,605 +2768,605 @@
       <c r="H50" t="s">
         <v>13</v>
       </c>
-      <c r="I50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2024</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
         <v>81</v>
       </c>
       <c r="E51" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
         <v>123</v>
       </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2024</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" t="s">
         <v>124</v>
       </c>
-      <c r="H51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>2024</v>
-      </c>
-      <c r="B52">
-        <v>11</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
         <v>125</v>
       </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" t="s">
         <v>126</v>
-      </c>
-      <c r="H52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>2024</v>
-      </c>
-      <c r="B53">
-        <v>11</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" t="s">
-        <v>127</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
       </c>
       <c r="G53" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2024</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" t="s">
         <v>128</v>
-      </c>
-      <c r="H53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>2024</v>
-      </c>
-      <c r="B54">
-        <v>12</v>
-      </c>
-      <c r="C54">
-        <v>48</v>
-      </c>
-      <c r="D54" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" t="s">
-        <v>129</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
       </c>
       <c r="G54" t="s">
+        <v>129</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2024</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" t="s">
         <v>130</v>
-      </c>
-      <c r="H54" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>2024</v>
-      </c>
-      <c r="B55">
-        <v>12</v>
-      </c>
-      <c r="C55">
-        <v>75</v>
-      </c>
-      <c r="D55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" t="s">
-        <v>131</v>
       </c>
       <c r="F55" t="s">
         <v>19</v>
       </c>
       <c r="G55" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2024</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" t="s">
         <v>132</v>
-      </c>
-      <c r="H55" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>2024</v>
-      </c>
-      <c r="B56">
-        <v>12</v>
-      </c>
-      <c r="C56">
-        <v>53</v>
-      </c>
-      <c r="D56" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" t="s">
-        <v>133</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" t="s">
         <v>134</v>
       </c>
-      <c r="H56" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
         <v>135</v>
       </c>
-      <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2024</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" t="s">
         <v>136</v>
-      </c>
-      <c r="H57" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>2024</v>
-      </c>
-      <c r="B58">
-        <v>12</v>
-      </c>
-      <c r="C58">
-        <v>10</v>
-      </c>
-      <c r="D58" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" t="s">
-        <v>137</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
       </c>
-      <c r="I58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I58" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>13</v>
       </c>
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s">
-        <v>13</v>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
       </c>
       <c r="D59" t="s">
         <v>81</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
       </c>
       <c r="G59" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2024</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" t="s">
         <v>139</v>
-      </c>
-      <c r="H59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>2024</v>
-      </c>
-      <c r="B60">
-        <v>12</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" t="s">
-        <v>140</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
       </c>
       <c r="G60" t="s">
+        <v>140</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2024</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" t="s">
         <v>141</v>
-      </c>
-      <c r="H60" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>2024</v>
-      </c>
-      <c r="B61">
-        <v>12</v>
-      </c>
-      <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="D61" t="s">
-        <v>81</v>
-      </c>
-      <c r="E61" t="s">
-        <v>142</v>
       </c>
       <c r="F61" t="s">
         <v>19</v>
       </c>
       <c r="G61" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2024</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" t="s">
         <v>143</v>
       </c>
-      <c r="H61" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>2024</v>
-      </c>
-      <c r="B62">
-        <v>11</v>
-      </c>
-      <c r="C62">
-        <v>28</v>
-      </c>
-      <c r="D62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
         <v>144</v>
       </c>
-      <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2024</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" t="s">
         <v>145</v>
-      </c>
-      <c r="H62" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>2024</v>
-      </c>
-      <c r="B63">
-        <v>12</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="D63" t="s">
-        <v>81</v>
-      </c>
-      <c r="E63" t="s">
-        <v>146</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
       </c>
       <c r="G63" t="s">
+        <v>146</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2024</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" t="s">
         <v>147</v>
       </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>2024</v>
-      </c>
-      <c r="B64">
-        <v>12</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
         <v>148</v>
       </c>
-      <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2024</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" t="s">
         <v>149</v>
-      </c>
-      <c r="H64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>2024</v>
-      </c>
-      <c r="B65">
-        <v>12</v>
-      </c>
-      <c r="C65">
-        <v>5</v>
-      </c>
-      <c r="D65" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" t="s">
-        <v>150</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
       </c>
       <c r="G65" t="s">
+        <v>150</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" t="s">
         <v>151</v>
       </c>
-      <c r="H65" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
         <v>152</v>
       </c>
-      <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s">
-        <v>153</v>
-      </c>
       <c r="H66" t="s">
         <v>13</v>
       </c>
-      <c r="I66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I66" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2024</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D67" t="s">
         <v>81</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
       </c>
-      <c r="I67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I67" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2024</v>
       </c>
       <c r="B68">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D68" t="s">
         <v>81</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F68" t="s">
         <v>19</v>
       </c>
       <c r="G68" t="s">
+        <v>154</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2024</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" t="s">
         <v>155</v>
       </c>
-      <c r="H68" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>2024</v>
-      </c>
-      <c r="B69">
-        <v>12</v>
-      </c>
-      <c r="C69">
-        <v>9</v>
-      </c>
-      <c r="D69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
         <v>156</v>
       </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2024</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" t="s">
         <v>157</v>
-      </c>
-      <c r="H69" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>2024</v>
-      </c>
-      <c r="B70">
-        <v>11</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70" t="s">
-        <v>158</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
       </c>
       <c r="G70" t="s">
+        <v>158</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2024</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" t="s">
         <v>159</v>
-      </c>
-      <c r="H70" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>2024</v>
-      </c>
-      <c r="B71">
-        <v>11</v>
-      </c>
-      <c r="C71">
-        <v>7</v>
-      </c>
-      <c r="D71" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" t="s">
-        <v>160</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -3385,25 +3377,25 @@
       <c r="H71" t="s">
         <v>13</v>
       </c>
-      <c r="I71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I71" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>13</v>
       </c>
-      <c r="B72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" t="s">
-        <v>13</v>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
       </c>
       <c r="D72" t="s">
         <v>81</v>
       </c>
       <c r="E72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -3414,141 +3406,141 @@
       <c r="H72" t="s">
         <v>13</v>
       </c>
-      <c r="I72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I72" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2024</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D73" t="s">
         <v>81</v>
       </c>
       <c r="E73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
       </c>
       <c r="G73" t="s">
+        <v>161</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" t="s">
         <v>162</v>
       </c>
-      <c r="H73" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" t="s">
-        <v>81</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>163</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>164</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2024</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" t="s">
         <v>165</v>
       </c>
-      <c r="H74" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>2024</v>
-      </c>
-      <c r="B75">
-        <v>12</v>
-      </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-      <c r="D75" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>166</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>167</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" t="s">
         <v>168</v>
-      </c>
-      <c r="H75" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" t="s">
-        <v>81</v>
-      </c>
-      <c r="E76" t="s">
-        <v>169</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" t="s">
+        <v>169</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
         <v>170</v>
       </c>
-      <c r="H76" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>171</v>
-      </c>
-      <c r="E77" t="s">
-        <v>172</v>
       </c>
       <c r="F77" t="s">
         <v>63</v>
@@ -3559,431 +3551,431 @@
       <c r="H77" t="s">
         <v>13</v>
       </c>
-      <c r="I77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I77" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" t="s">
-        <v>13</v>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
       </c>
       <c r="D78" t="s">
         <v>40</v>
       </c>
       <c r="E78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F78" t="s">
         <v>63</v>
       </c>
       <c r="G78" t="s">
+        <v>173</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" t="s">
+        <v>160</v>
+      </c>
+      <c r="F79" t="s">
         <v>174</v>
       </c>
-      <c r="H78" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" t="s">
-        <v>81</v>
-      </c>
-      <c r="E79" t="s">
-        <v>161</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>175</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" t="s">
         <v>176</v>
       </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" t="s">
-        <v>81</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
         <v>177</v>
       </c>
-      <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2024</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" t="s">
         <v>178</v>
       </c>
-      <c r="H80" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>2024</v>
-      </c>
-      <c r="B81">
-        <v>11</v>
-      </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-      <c r="D81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
         <v>179</v>
       </c>
-      <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
         <v>180</v>
       </c>
-      <c r="H81" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" t="s">
-        <v>81</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>181</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>182</v>
       </c>
-      <c r="G82" t="s">
-        <v>183</v>
-      </c>
       <c r="H82" t="s">
         <v>13</v>
       </c>
-      <c r="I82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I82" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>13</v>
       </c>
-      <c r="B83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" t="s">
-        <v>13</v>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
       </c>
       <c r="D83" t="s">
         <v>40</v>
       </c>
       <c r="E83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F83" t="s">
         <v>63</v>
       </c>
       <c r="G83" t="s">
+        <v>184</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" t="s">
         <v>185</v>
       </c>
-      <c r="H83" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" t="s">
-        <v>81</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>186</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>187</v>
       </c>
-      <c r="G84" t="s">
-        <v>188</v>
-      </c>
       <c r="H84" t="s">
         <v>13</v>
       </c>
-      <c r="I84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I84" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2025</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85" t="s">
         <v>81</v>
       </c>
       <c r="E85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" t="s">
+        <v>189</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
         <v>190</v>
       </c>
-      <c r="H85" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>191</v>
-      </c>
-      <c r="E86" t="s">
-        <v>192</v>
       </c>
       <c r="F86" t="s">
         <v>63</v>
       </c>
       <c r="G86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
       </c>
-      <c r="I86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I86" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>13</v>
       </c>
-      <c r="B87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" t="s">
-        <v>13</v>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
       </c>
       <c r="D87" t="s">
         <v>81</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
       </c>
-      <c r="I87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I87" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2025</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D88" t="s">
         <v>81</v>
       </c>
       <c r="E88" t="s">
+        <v>194</v>
+      </c>
+      <c r="F88" t="s">
         <v>195</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>196</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" t="s">
         <v>197</v>
       </c>
-      <c r="H88" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" t="s">
-        <v>81</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
         <v>198</v>
       </c>
-      <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2024</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
         <v>199</v>
       </c>
-      <c r="H89" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>2024</v>
-      </c>
-      <c r="B90">
-        <v>11</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>200</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>201</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>202</v>
       </c>
-      <c r="G90" t="s">
-        <v>203</v>
-      </c>
       <c r="H90" t="s">
         <v>13</v>
       </c>
-      <c r="I90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I90" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2025</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D91" t="s">
+        <v>203</v>
+      </c>
+      <c r="E91" t="s">
         <v>204</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
         <v>205</v>
       </c>
-      <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2024</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
         <v>206</v>
       </c>
-      <c r="H91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>2024</v>
-      </c>
-      <c r="B92">
-        <v>11</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>207</v>
-      </c>
-      <c r="E92" t="s">
-        <v>208</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
@@ -3994,54 +3986,54 @@
       <c r="H92" t="s">
         <v>13</v>
       </c>
-      <c r="I92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I92" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2024</v>
       </c>
       <c r="B93">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="s">
+        <v>208</v>
+      </c>
+      <c r="E93" t="s">
         <v>209</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
         <v>210</v>
       </c>
-      <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2024</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
         <v>211</v>
       </c>
-      <c r="H93" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>2024</v>
-      </c>
-      <c r="B94">
-        <v>13</v>
-      </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>212</v>
-      </c>
-      <c r="E94" t="s">
-        <v>213</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
@@ -4052,54 +4044,54 @@
       <c r="H94" t="s">
         <v>13</v>
       </c>
-      <c r="I94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I94" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>13</v>
       </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" t="s">
-        <v>13</v>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
       </c>
       <c r="D95" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" t="s">
         <v>214</v>
-      </c>
-      <c r="E95" t="s">
-        <v>215</v>
       </c>
       <c r="F95" t="s">
         <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
       </c>
-      <c r="I95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I95" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>13</v>
       </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="s">
-        <v>13</v>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
       </c>
       <c r="D96" t="s">
         <v>81</v>
       </c>
       <c r="E96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -4110,25 +4102,25 @@
       <c r="H96" t="s">
         <v>13</v>
       </c>
-      <c r="I96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I96" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>13</v>
       </c>
-      <c r="B97" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" t="s">
-        <v>13</v>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
       </c>
       <c r="D97" t="s">
         <v>58</v>
       </c>
       <c r="E97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F97" t="s">
         <v>63</v>
@@ -4139,86 +4131,86 @@
       <c r="H97" t="s">
         <v>13</v>
       </c>
-      <c r="I97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I97" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2024</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D98" t="s">
+        <v>217</v>
+      </c>
+      <c r="E98" t="s">
         <v>218</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
         <v>219</v>
       </c>
-      <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>81</v>
+      </c>
+      <c r="E99" t="s">
         <v>220</v>
-      </c>
-      <c r="H98" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" t="s">
-        <v>81</v>
-      </c>
-      <c r="E99" t="s">
-        <v>221</v>
       </c>
       <c r="F99" t="s">
         <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
       </c>
-      <c r="I99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I99" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>13</v>
       </c>
-      <c r="B100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" t="s">
-        <v>13</v>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
       </c>
       <c r="D100" t="s">
         <v>81</v>
       </c>
       <c r="E100" t="s">
+        <v>221</v>
+      </c>
+      <c r="F100" t="s">
         <v>222</v>
-      </c>
-      <c r="F100" t="s">
-        <v>223</v>
       </c>
       <c r="G100">
         <v>400421</v>
@@ -4226,25 +4218,25 @@
       <c r="H100" t="s">
         <v>13</v>
       </c>
-      <c r="I100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I100" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2024</v>
       </c>
       <c r="B101">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="s">
         <v>81</v>
       </c>
       <c r="E101" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -4255,19 +4247,19 @@
       <c r="H101" t="s">
         <v>13</v>
       </c>
-      <c r="I101" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I101" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>13</v>
       </c>
-      <c r="B102" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" t="s">
-        <v>13</v>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
       </c>
       <c r="D102" t="s">
         <v>81</v>
@@ -4279,82 +4271,82 @@
         <v>16</v>
       </c>
       <c r="G102" t="s">
+        <v>225</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>81</v>
+      </c>
+      <c r="E103" t="s">
         <v>226</v>
-      </c>
-      <c r="H102" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" t="s">
-        <v>81</v>
-      </c>
-      <c r="E103" t="s">
-        <v>227</v>
       </c>
       <c r="F103" t="s">
         <v>117</v>
       </c>
       <c r="G103" t="s">
+        <v>227</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>81</v>
+      </c>
+      <c r="E104" t="s">
+        <v>185</v>
+      </c>
+      <c r="F104" t="s">
         <v>228</v>
       </c>
-      <c r="H103" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" t="s">
-        <v>81</v>
-      </c>
-      <c r="E104" t="s">
-        <v>186</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>229</v>
       </c>
-      <c r="G104" t="s">
-        <v>230</v>
-      </c>
       <c r="H104" t="s">
         <v>13</v>
       </c>
-      <c r="I104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I104" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>13</v>
       </c>
-      <c r="B105" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" t="s">
-        <v>13</v>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
       </c>
       <c r="D105" t="s">
         <v>81</v>
@@ -4371,431 +4363,431 @@
       <c r="H105" t="s">
         <v>13</v>
       </c>
-      <c r="I105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I105" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2024</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D106" t="s">
+        <v>217</v>
+      </c>
+      <c r="E106" t="s">
         <v>218</v>
       </c>
-      <c r="E106" t="s">
-        <v>219</v>
-      </c>
       <c r="F106" t="s">
         <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H106" t="s">
         <v>13</v>
       </c>
-      <c r="I106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I106" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>13</v>
       </c>
-      <c r="B107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" t="s">
-        <v>13</v>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
       </c>
       <c r="D107" t="s">
         <v>81</v>
       </c>
       <c r="E107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F107" t="s">
         <v>19</v>
       </c>
       <c r="G107" t="s">
+        <v>231</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" t="s">
         <v>232</v>
-      </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E108" t="s">
-        <v>233</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" t="s">
+        <v>233</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109" t="s">
         <v>234</v>
       </c>
-      <c r="H108" t="s">
-        <v>13</v>
-      </c>
-      <c r="I108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" t="s">
-        <v>81</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
         <v>235</v>
       </c>
-      <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>81</v>
+      </c>
+      <c r="E110" t="s">
         <v>236</v>
       </c>
-      <c r="H109" t="s">
-        <v>13</v>
-      </c>
-      <c r="I109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" t="s">
-        <v>81</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>237</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>238</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>213</v>
+      </c>
+      <c r="E111" t="s">
         <v>239</v>
       </c>
-      <c r="H110" t="s">
-        <v>13</v>
-      </c>
-      <c r="I110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" t="s">
-        <v>214</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>240</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>241</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>213</v>
+      </c>
+      <c r="E112" t="s">
         <v>242</v>
       </c>
-      <c r="H111" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" t="s">
-        <v>214</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
         <v>243</v>
       </c>
-      <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>213</v>
+      </c>
+      <c r="E113" t="s">
         <v>244</v>
-      </c>
-      <c r="H112" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113" t="s">
-        <v>214</v>
-      </c>
-      <c r="E113" t="s">
-        <v>245</v>
       </c>
       <c r="F113" t="s">
         <v>63</v>
       </c>
       <c r="G113" t="s">
+        <v>245</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2024</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>217</v>
+      </c>
+      <c r="E114" t="s">
         <v>246</v>
       </c>
-      <c r="H113" t="s">
-        <v>13</v>
-      </c>
-      <c r="I113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>2024</v>
-      </c>
-      <c r="B114">
-        <v>15</v>
-      </c>
-      <c r="C114">
-        <v>80</v>
-      </c>
-      <c r="D114" t="s">
-        <v>218</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
         <v>247</v>
       </c>
-      <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2024</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
         <v>248</v>
       </c>
-      <c r="H114" t="s">
-        <v>13</v>
-      </c>
-      <c r="I114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>2024</v>
-      </c>
-      <c r="B115">
-        <v>13</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>249</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
         <v>250</v>
       </c>
-      <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>213</v>
+      </c>
+      <c r="E116" t="s">
         <v>251</v>
       </c>
-      <c r="H115" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" t="s">
-        <v>214</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
         <v>252</v>
       </c>
-      <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s">
-        <v>253</v>
-      </c>
       <c r="H116" t="s">
         <v>13</v>
       </c>
-      <c r="I116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I116" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2025</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E117" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F117" t="s">
+        <v>253</v>
+      </c>
+      <c r="G117" t="s">
         <v>254</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>213</v>
+      </c>
+      <c r="E118" t="s">
         <v>255</v>
-      </c>
-      <c r="H117" t="s">
-        <v>13</v>
-      </c>
-      <c r="I117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" t="s">
-        <v>214</v>
-      </c>
-      <c r="E118" t="s">
-        <v>256</v>
       </c>
       <c r="F118" t="s">
         <v>63</v>
       </c>
       <c r="G118" t="s">
+        <v>256</v>
+      </c>
+      <c r="H118" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>81</v>
+      </c>
+      <c r="E119" t="s">
         <v>257</v>
       </c>
-      <c r="H118" t="s">
-        <v>13</v>
-      </c>
-      <c r="I118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" t="s">
-        <v>81</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
         <v>258</v>
       </c>
-      <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s">
-        <v>259</v>
-      </c>
       <c r="H119" t="s">
         <v>13</v>
       </c>
-      <c r="I119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I119" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2024</v>
       </c>
       <c r="B120">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120" t="s">
         <v>81</v>
       </c>
       <c r="E120" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
@@ -4806,431 +4798,431 @@
       <c r="H120" t="s">
         <v>13</v>
       </c>
-      <c r="I120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I120" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>13</v>
       </c>
-      <c r="B121" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" t="s">
-        <v>13</v>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
       </c>
       <c r="D121" t="s">
         <v>81</v>
       </c>
       <c r="E121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
       </c>
       <c r="G121" t="s">
+        <v>259</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>81</v>
+      </c>
+      <c r="E122" t="s">
         <v>260</v>
       </c>
-      <c r="H121" t="s">
-        <v>13</v>
-      </c>
-      <c r="I121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" t="s">
-        <v>81</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
+        <v>181</v>
+      </c>
+      <c r="G122" t="s">
         <v>261</v>
       </c>
-      <c r="F122" t="s">
-        <v>182</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>81</v>
+      </c>
+      <c r="E123" t="s">
         <v>262</v>
       </c>
-      <c r="H122" t="s">
-        <v>13</v>
-      </c>
-      <c r="I122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" t="s">
-        <v>81</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>263</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>264</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>81</v>
+      </c>
+      <c r="E124" t="s">
         <v>265</v>
       </c>
-      <c r="H123" t="s">
-        <v>13</v>
-      </c>
-      <c r="I123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" t="s">
-        <v>81</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>266</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>267</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>81</v>
+      </c>
+      <c r="E125" t="s">
         <v>268</v>
       </c>
-      <c r="H124" t="s">
-        <v>13</v>
-      </c>
-      <c r="I124" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" t="s">
-        <v>81</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>269</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>270</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>213</v>
+      </c>
+      <c r="E126" t="s">
         <v>271</v>
-      </c>
-      <c r="H125" t="s">
-        <v>13</v>
-      </c>
-      <c r="I125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" t="s">
-        <v>214</v>
-      </c>
-      <c r="E126" t="s">
-        <v>272</v>
       </c>
       <c r="F126" t="s">
         <v>63</v>
       </c>
       <c r="G126" t="s">
+        <v>272</v>
+      </c>
+      <c r="H126" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2024</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>213</v>
+      </c>
+      <c r="E127" t="s">
         <v>273</v>
       </c>
-      <c r="H126" t="s">
-        <v>13</v>
-      </c>
-      <c r="I126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>2024</v>
-      </c>
-      <c r="B127">
-        <v>13</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>214</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
         <v>274</v>
       </c>
-      <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2024</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>213</v>
+      </c>
+      <c r="E128" t="s">
         <v>275</v>
-      </c>
-      <c r="H127" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>2024</v>
-      </c>
-      <c r="B128">
-        <v>13</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>214</v>
-      </c>
-      <c r="E128" t="s">
-        <v>276</v>
       </c>
       <c r="F128" t="s">
         <v>19</v>
       </c>
       <c r="G128" t="s">
+        <v>276</v>
+      </c>
+      <c r="H128" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2024</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>213</v>
+      </c>
+      <c r="E129" t="s">
         <v>277</v>
       </c>
-      <c r="H128" t="s">
-        <v>13</v>
-      </c>
-      <c r="I128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>2024</v>
-      </c>
-      <c r="B129">
-        <v>15</v>
-      </c>
-      <c r="C129">
-        <v>242</v>
-      </c>
-      <c r="D129" t="s">
-        <v>214</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
         <v>278</v>
       </c>
-      <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2024</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>213</v>
+      </c>
+      <c r="E130" t="s">
         <v>279</v>
       </c>
-      <c r="H129" t="s">
-        <v>13</v>
-      </c>
-      <c r="I129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>2024</v>
-      </c>
-      <c r="B130">
-        <v>15</v>
-      </c>
-      <c r="C130">
-        <v>50</v>
-      </c>
-      <c r="D130" t="s">
-        <v>214</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>278</v>
+      </c>
+      <c r="H130" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2024</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>213</v>
+      </c>
+      <c r="E131" t="s">
         <v>280</v>
       </c>
-      <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s">
-        <v>279</v>
-      </c>
-      <c r="H130" t="s">
-        <v>13</v>
-      </c>
-      <c r="I130" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>2024</v>
-      </c>
-      <c r="B131">
-        <v>13</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131" t="s">
-        <v>214</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
         <v>281</v>
       </c>
-      <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s">
-        <v>282</v>
-      </c>
       <c r="H131" t="s">
         <v>13</v>
       </c>
-      <c r="I131" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I131" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2025</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E132" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F132" t="s">
         <v>11</v>
       </c>
       <c r="G132" t="s">
+        <v>283</v>
+      </c>
+      <c r="H132" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2024</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
         <v>284</v>
       </c>
-      <c r="H132" t="s">
-        <v>13</v>
-      </c>
-      <c r="I132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>2024</v>
-      </c>
-      <c r="B133">
-        <v>11</v>
-      </c>
-      <c r="C133">
-        <v>4</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
+        <v>171</v>
+      </c>
+      <c r="F133" t="s">
         <v>285</v>
       </c>
-      <c r="E133" t="s">
-        <v>172</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>286</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>2024</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>284</v>
+      </c>
+      <c r="E134" t="s">
         <v>287</v>
       </c>
-      <c r="H133" t="s">
-        <v>13</v>
-      </c>
-      <c r="I133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>2024</v>
-      </c>
-      <c r="B134">
-        <v>13</v>
-      </c>
-      <c r="C134">
-        <v>2</v>
-      </c>
-      <c r="D134" t="s">
-        <v>285</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
         <v>288</v>
       </c>
-      <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s">
-        <v>289</v>
-      </c>
       <c r="H134" t="s">
         <v>13</v>
       </c>
-      <c r="I134" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I134" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2025</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E135" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F135" t="s">
         <v>60</v>
@@ -5241,173 +5233,173 @@
       <c r="H135" t="s">
         <v>13</v>
       </c>
-      <c r="I135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I135" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2025</v>
       </c>
-      <c r="B136" t="s">
-        <v>291</v>
+      <c r="B136">
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D136" t="s">
         <v>81</v>
       </c>
       <c r="E136" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F136" t="s">
         <v>84</v>
       </c>
       <c r="G136" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H136" t="s">
         <v>13</v>
       </c>
-      <c r="I136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I136" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2025</v>
       </c>
-      <c r="B137" t="s">
-        <v>294</v>
+      <c r="B137">
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D137" t="s">
         <v>81</v>
       </c>
       <c r="E137" t="s">
+        <v>290</v>
+      </c>
+      <c r="F137" t="s">
+        <v>174</v>
+      </c>
+      <c r="G137" t="s">
         <v>292</v>
       </c>
-      <c r="F137" t="s">
-        <v>175</v>
-      </c>
-      <c r="G137" t="s">
-        <v>295</v>
-      </c>
       <c r="H137" t="s">
         <v>13</v>
       </c>
-      <c r="I137" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I137" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2025</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D138" t="s">
         <v>81</v>
       </c>
       <c r="E138" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F138" t="s">
         <v>22</v>
       </c>
       <c r="G138" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
       </c>
-      <c r="I138" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I138" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2025</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139" t="s">
+        <v>295</v>
+      </c>
+      <c r="E139" t="s">
+        <v>296</v>
+      </c>
+      <c r="F139" t="s">
+        <v>174</v>
+      </c>
+      <c r="G139" t="s">
+        <v>297</v>
+      </c>
+      <c r="H139" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2024</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
         <v>298</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E140" t="s">
         <v>299</v>
-      </c>
-      <c r="F139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G139" t="s">
-        <v>300</v>
-      </c>
-      <c r="H139" t="s">
-        <v>13</v>
-      </c>
-      <c r="I139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>2024</v>
-      </c>
-      <c r="B140">
-        <v>11</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140" t="s">
-        <v>301</v>
-      </c>
-      <c r="E140" t="s">
-        <v>302</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
       </c>
       <c r="G140" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H140" t="s">
         <v>13</v>
       </c>
-      <c r="I140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I140" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>13</v>
       </c>
-      <c r="B141" t="s">
-        <v>13</v>
-      </c>
-      <c r="C141" t="s">
-        <v>13</v>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
       </c>
       <c r="D141" t="s">
         <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F141" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G141">
         <v>14987</v>
@@ -5415,14 +5407,14 @@
       <c r="H141" t="s">
         <v>13</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I1 A3:I12 A2:H2 A15:I141 A13:H14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I1 A3:A12 A2 A15:A141 A13:A14 D2:H2 D3:I12 D15:I141 D13:H14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/Overstock supplies other companies.xlsx
+++ b/backend/Overstock supplies other companies.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -444,6 +444,9 @@
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2" t="str">
+        <v>-</v>
+      </c>
       <c r="D2">
         <v>643131378916</v>
       </c>
@@ -473,6 +476,9 @@
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3" t="str">
+        <v>-</v>
+      </c>
       <c r="D3" t="str">
         <v>-</v>
       </c>
@@ -502,6 +508,9 @@
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4" t="str">
+        <v>-</v>
+      </c>
       <c r="D4" t="str">
         <v>-</v>
       </c>
@@ -531,6 +540,9 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" t="str">
+        <v>-</v>
+      </c>
       <c r="D5" t="str">
         <v>-</v>
       </c>
@@ -560,6 +572,9 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6" t="str">
+        <v>-</v>
+      </c>
       <c r="D6" t="str">
         <v>-</v>
       </c>
@@ -589,6 +604,9 @@
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7" t="str">
+        <v>-</v>
+      </c>
       <c r="D7" t="str">
         <v>-</v>
       </c>
@@ -617,6 +635,9 @@
       </c>
       <c r="B8">
         <v>0</v>
+      </c>
+      <c r="C8" t="str">
+        <v>-</v>
       </c>
       <c r="D8" t="str">
         <v>-</v>
@@ -647,6 +668,9 @@
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9" t="str">
+        <v>-</v>
+      </c>
       <c r="D9" t="str">
         <v>-</v>
       </c>
@@ -676,6 +700,9 @@
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="C10" t="str">
+        <v>-</v>
+      </c>
       <c r="D10" t="str">
         <v>-</v>
       </c>
@@ -705,6 +732,9 @@
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11" t="str">
+        <v>-</v>
+      </c>
       <c r="D11" t="str">
         <v>-</v>
       </c>
@@ -733,6 +763,9 @@
       </c>
       <c r="B12">
         <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <v>-</v>
       </c>
       <c r="D12" t="str">
         <v>-</v>
@@ -763,6 +796,9 @@
       <c r="B13">
         <v>0</v>
       </c>
+      <c r="C13" t="str">
+        <v>-</v>
+      </c>
       <c r="D13">
         <v>817783020138</v>
       </c>
@@ -792,6 +828,9 @@
       <c r="B14">
         <v>0</v>
       </c>
+      <c r="C14" t="str">
+        <v>-</v>
+      </c>
       <c r="D14" t="str">
         <v>-</v>
       </c>
@@ -821,6 +860,9 @@
       <c r="B15">
         <v>0</v>
       </c>
+      <c r="C15" t="str">
+        <v>-</v>
+      </c>
       <c r="D15" t="str">
         <v>-</v>
       </c>
@@ -850,6 +892,9 @@
       <c r="B16">
         <v>0</v>
       </c>
+      <c r="C16" t="str">
+        <v>-</v>
+      </c>
       <c r="D16" t="str">
         <v>-</v>
       </c>
@@ -879,6 +924,9 @@
       <c r="B17">
         <v>0</v>
       </c>
+      <c r="C17" t="str">
+        <v>-</v>
+      </c>
       <c r="D17" t="str">
         <v>-</v>
       </c>
@@ -908,6 +956,9 @@
       <c r="B18">
         <v>0</v>
       </c>
+      <c r="C18" t="str">
+        <v>-</v>
+      </c>
       <c r="D18" t="str">
         <v>-</v>
       </c>
@@ -936,6 +987,9 @@
       </c>
       <c r="B19">
         <v>0</v>
+      </c>
+      <c r="C19" t="str">
+        <v>-</v>
       </c>
       <c r="D19" t="str">
         <v>-</v>
@@ -966,6 +1020,9 @@
       <c r="B20">
         <v>0</v>
       </c>
+      <c r="C20" t="str">
+        <v>-</v>
+      </c>
       <c r="D20" t="str">
         <v>-</v>
       </c>
@@ -995,6 +1052,9 @@
       <c r="B21">
         <v>0</v>
       </c>
+      <c r="C21" t="str">
+        <v>-</v>
+      </c>
       <c r="D21" t="str">
         <v>-</v>
       </c>
@@ -1024,6 +1084,9 @@
       <c r="B22">
         <v>0</v>
       </c>
+      <c r="C22" t="str">
+        <v>-</v>
+      </c>
       <c r="D22" t="str">
         <v>-</v>
       </c>
@@ -1053,6 +1116,9 @@
       <c r="B23">
         <v>0</v>
       </c>
+      <c r="C23" t="str">
+        <v>-</v>
+      </c>
       <c r="D23" t="str">
         <v>-</v>
       </c>
@@ -1082,6 +1148,9 @@
       <c r="B24">
         <v>0</v>
       </c>
+      <c r="C24" t="str">
+        <v>-</v>
+      </c>
       <c r="D24" t="str">
         <v>-</v>
       </c>
@@ -1111,6 +1180,9 @@
       <c r="B25">
         <v>0</v>
       </c>
+      <c r="C25" t="str">
+        <v>-</v>
+      </c>
       <c r="D25" t="str">
         <v>-</v>
       </c>
@@ -1140,6 +1212,9 @@
       <c r="B26">
         <v>0</v>
       </c>
+      <c r="C26" t="str">
+        <v>-</v>
+      </c>
       <c r="D26" t="str">
         <v>-</v>
       </c>
@@ -1169,6 +1244,9 @@
       <c r="B27">
         <v>0</v>
       </c>
+      <c r="C27" t="str">
+        <v>-</v>
+      </c>
       <c r="D27" t="str">
         <v>-</v>
       </c>
@@ -1198,6 +1276,9 @@
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="C28" t="str">
+        <v>-</v>
+      </c>
       <c r="D28" t="str">
         <v>-</v>
       </c>
@@ -1227,6 +1308,9 @@
       <c r="B29">
         <v>0</v>
       </c>
+      <c r="C29" t="str">
+        <v>-</v>
+      </c>
       <c r="D29" t="str">
         <v>-</v>
       </c>
@@ -1256,6 +1340,9 @@
       <c r="B30">
         <v>0</v>
       </c>
+      <c r="C30" t="str">
+        <v>-</v>
+      </c>
       <c r="D30" t="str">
         <v>-</v>
       </c>
@@ -1285,6 +1372,9 @@
       <c r="B31">
         <v>0</v>
       </c>
+      <c r="C31" t="str">
+        <v>-</v>
+      </c>
       <c r="D31" t="str">
         <v>-</v>
       </c>
@@ -1314,6 +1404,9 @@
       <c r="B32">
         <v>0</v>
       </c>
+      <c r="C32" t="str">
+        <v>-</v>
+      </c>
       <c r="D32" t="str">
         <v>-</v>
       </c>
@@ -1343,6 +1436,9 @@
       <c r="B33">
         <v>0</v>
       </c>
+      <c r="C33" t="str">
+        <v>-</v>
+      </c>
       <c r="D33" t="str">
         <v>-</v>
       </c>
@@ -1372,6 +1468,9 @@
       <c r="B34">
         <v>0</v>
       </c>
+      <c r="C34" t="str">
+        <v>-</v>
+      </c>
       <c r="D34" t="str">
         <v>-</v>
       </c>
@@ -1400,6 +1499,9 @@
       </c>
       <c r="B35">
         <v>0</v>
+      </c>
+      <c r="C35" t="str">
+        <v>-</v>
       </c>
       <c r="D35" t="str">
         <v>-</v>
@@ -1430,6 +1532,9 @@
       <c r="B36">
         <v>0</v>
       </c>
+      <c r="C36" t="str">
+        <v>-</v>
+      </c>
       <c r="D36" t="str">
         <v>-</v>
       </c>
@@ -1459,6 +1564,9 @@
       <c r="B37">
         <v>0</v>
       </c>
+      <c r="C37" t="str">
+        <v>-</v>
+      </c>
       <c r="D37" t="str">
         <v>-</v>
       </c>
@@ -1488,6 +1596,9 @@
       <c r="B38">
         <v>0</v>
       </c>
+      <c r="C38" t="str">
+        <v>-</v>
+      </c>
       <c r="D38" t="str">
         <v>-</v>
       </c>
@@ -1516,6 +1627,9 @@
       </c>
       <c r="B39">
         <v>0</v>
+      </c>
+      <c r="C39" t="str">
+        <v>-</v>
       </c>
       <c r="D39" t="str">
         <v>-</v>
@@ -1546,6 +1660,9 @@
       <c r="B40">
         <v>0</v>
       </c>
+      <c r="C40" t="str">
+        <v>-</v>
+      </c>
       <c r="D40" t="str">
         <v>-</v>
       </c>
@@ -1574,6 +1691,9 @@
       </c>
       <c r="B41">
         <v>0</v>
+      </c>
+      <c r="C41" t="str">
+        <v>-</v>
       </c>
       <c r="D41" t="str">
         <v>-</v>
@@ -1604,6 +1724,9 @@
       <c r="B42">
         <v>0</v>
       </c>
+      <c r="C42" t="str">
+        <v>-</v>
+      </c>
       <c r="D42" t="str">
         <v>-</v>
       </c>
@@ -1633,6 +1756,9 @@
       <c r="B43">
         <v>0</v>
       </c>
+      <c r="C43" t="str">
+        <v>-</v>
+      </c>
       <c r="D43" t="str">
         <v>-</v>
       </c>
@@ -1662,6 +1788,9 @@
       <c r="B44">
         <v>0</v>
       </c>
+      <c r="C44" t="str">
+        <v>-</v>
+      </c>
       <c r="D44" t="str">
         <v>-</v>
       </c>
@@ -1691,6 +1820,9 @@
       <c r="B45">
         <v>0</v>
       </c>
+      <c r="C45" t="str">
+        <v>-</v>
+      </c>
       <c r="D45" t="str">
         <v>-</v>
       </c>
@@ -1720,6 +1852,9 @@
       <c r="B46">
         <v>0</v>
       </c>
+      <c r="C46" t="str">
+        <v>-</v>
+      </c>
       <c r="D46" t="str">
         <v>-</v>
       </c>
@@ -1749,6 +1884,9 @@
       <c r="B47">
         <v>0</v>
       </c>
+      <c r="C47" t="str">
+        <v>-</v>
+      </c>
       <c r="D47" t="str">
         <v>-</v>
       </c>
@@ -1778,6 +1916,9 @@
       <c r="B48">
         <v>0</v>
       </c>
+      <c r="C48" t="str">
+        <v>-</v>
+      </c>
       <c r="D48" t="str">
         <v>-</v>
       </c>
@@ -1807,6 +1948,9 @@
       <c r="B49">
         <v>0</v>
       </c>
+      <c r="C49" t="str">
+        <v>-</v>
+      </c>
       <c r="D49" t="str">
         <v>-</v>
       </c>
@@ -1836,6 +1980,9 @@
       <c r="B50">
         <v>0</v>
       </c>
+      <c r="C50" t="str">
+        <v>-</v>
+      </c>
       <c r="D50" t="str">
         <v>-</v>
       </c>
@@ -1865,6 +2012,9 @@
       <c r="B51">
         <v>0</v>
       </c>
+      <c r="C51" t="str">
+        <v>-</v>
+      </c>
       <c r="D51" t="str">
         <v>-</v>
       </c>
@@ -1894,6 +2044,9 @@
       <c r="B52">
         <v>0</v>
       </c>
+      <c r="C52" t="str">
+        <v>-</v>
+      </c>
       <c r="D52" t="str">
         <v>-</v>
       </c>
@@ -1923,6 +2076,9 @@
       <c r="B53">
         <v>0</v>
       </c>
+      <c r="C53" t="str">
+        <v>-</v>
+      </c>
       <c r="D53" t="str">
         <v>-</v>
       </c>
@@ -1952,6 +2108,9 @@
       <c r="B54">
         <v>0</v>
       </c>
+      <c r="C54" t="str">
+        <v>-</v>
+      </c>
       <c r="D54" t="str">
         <v>-</v>
       </c>
@@ -1981,6 +2140,9 @@
       <c r="B55">
         <v>0</v>
       </c>
+      <c r="C55" t="str">
+        <v>-</v>
+      </c>
       <c r="D55" t="str">
         <v>-</v>
       </c>
@@ -2010,6 +2172,9 @@
       <c r="B56">
         <v>0</v>
       </c>
+      <c r="C56" t="str">
+        <v>-</v>
+      </c>
       <c r="D56" t="str">
         <v>-</v>
       </c>
@@ -2039,6 +2204,9 @@
       <c r="B57">
         <v>0</v>
       </c>
+      <c r="C57" t="str">
+        <v>-</v>
+      </c>
       <c r="D57" t="str">
         <v>-</v>
       </c>
@@ -2068,6 +2236,9 @@
       <c r="B58">
         <v>0</v>
       </c>
+      <c r="C58" t="str">
+        <v>-</v>
+      </c>
       <c r="D58" t="str">
         <v>-</v>
       </c>
@@ -2097,6 +2268,9 @@
       <c r="B59">
         <v>0</v>
       </c>
+      <c r="C59" t="str">
+        <v>-</v>
+      </c>
       <c r="D59" t="str">
         <v>-</v>
       </c>
@@ -2126,6 +2300,9 @@
       <c r="B60">
         <v>0</v>
       </c>
+      <c r="C60" t="str">
+        <v>-</v>
+      </c>
       <c r="D60" t="str">
         <v>-</v>
       </c>
@@ -2155,6 +2332,9 @@
       <c r="B61">
         <v>0</v>
       </c>
+      <c r="C61" t="str">
+        <v>-</v>
+      </c>
       <c r="D61" t="str">
         <v>-</v>
       </c>
@@ -2184,6 +2364,9 @@
       <c r="B62">
         <v>0</v>
       </c>
+      <c r="C62" t="str">
+        <v>-</v>
+      </c>
       <c r="D62" t="str">
         <v>-</v>
       </c>
@@ -2213,6 +2396,9 @@
       <c r="B63">
         <v>0</v>
       </c>
+      <c r="C63" t="str">
+        <v>-</v>
+      </c>
       <c r="D63" t="str">
         <v>-</v>
       </c>
@@ -2242,6 +2428,9 @@
       <c r="B64">
         <v>0</v>
       </c>
+      <c r="C64" t="str">
+        <v>-</v>
+      </c>
       <c r="D64" t="str">
         <v>-</v>
       </c>
@@ -2271,6 +2460,9 @@
       <c r="B65">
         <v>0</v>
       </c>
+      <c r="C65" t="str">
+        <v>-</v>
+      </c>
       <c r="D65" t="str">
         <v>-</v>
       </c>
@@ -2300,6 +2492,9 @@
       <c r="B66">
         <v>0</v>
       </c>
+      <c r="C66" t="str">
+        <v>-</v>
+      </c>
       <c r="D66" t="str">
         <v>-</v>
       </c>
@@ -2329,6 +2524,9 @@
       <c r="B67">
         <v>0</v>
       </c>
+      <c r="C67" t="str">
+        <v>-</v>
+      </c>
       <c r="D67" t="str">
         <v>-</v>
       </c>
@@ -2358,6 +2556,9 @@
       <c r="B68">
         <v>0</v>
       </c>
+      <c r="C68" t="str">
+        <v>-</v>
+      </c>
       <c r="D68" t="str">
         <v>-</v>
       </c>
@@ -2387,6 +2588,9 @@
       <c r="B69">
         <v>0</v>
       </c>
+      <c r="C69" t="str">
+        <v>-</v>
+      </c>
       <c r="D69" t="str">
         <v>-</v>
       </c>
@@ -2416,6 +2620,9 @@
       <c r="B70">
         <v>0</v>
       </c>
+      <c r="C70" t="str">
+        <v>-</v>
+      </c>
       <c r="D70" t="str">
         <v>-</v>
       </c>
@@ -2445,6 +2652,9 @@
       <c r="B71">
         <v>0</v>
       </c>
+      <c r="C71" t="str">
+        <v>-</v>
+      </c>
       <c r="D71" t="str">
         <v>-</v>
       </c>
@@ -2474,6 +2684,9 @@
       <c r="B72">
         <v>0</v>
       </c>
+      <c r="C72" t="str">
+        <v>-</v>
+      </c>
       <c r="D72" t="str">
         <v>-</v>
       </c>
@@ -2503,6 +2716,9 @@
       <c r="B73">
         <v>0</v>
       </c>
+      <c r="C73" t="str">
+        <v>-</v>
+      </c>
       <c r="D73" t="str">
         <v>-</v>
       </c>
@@ -2532,6 +2748,9 @@
       <c r="B74">
         <v>0</v>
       </c>
+      <c r="C74" t="str">
+        <v>-</v>
+      </c>
       <c r="D74" t="str">
         <v>-</v>
       </c>
@@ -2561,6 +2780,9 @@
       <c r="B75">
         <v>0</v>
       </c>
+      <c r="C75" t="str">
+        <v>-</v>
+      </c>
       <c r="D75" t="str">
         <v>-</v>
       </c>
@@ -2590,6 +2812,9 @@
       <c r="B76">
         <v>0</v>
       </c>
+      <c r="C76" t="str">
+        <v>-</v>
+      </c>
       <c r="D76" t="str">
         <v>-</v>
       </c>
@@ -2619,6 +2844,9 @@
       <c r="B77">
         <v>0</v>
       </c>
+      <c r="C77" t="str">
+        <v>-</v>
+      </c>
       <c r="D77" t="str">
         <v>-</v>
       </c>
@@ -2648,6 +2876,9 @@
       <c r="B78">
         <v>0</v>
       </c>
+      <c r="C78" t="str">
+        <v>-</v>
+      </c>
       <c r="D78" t="str">
         <v>-</v>
       </c>
@@ -2677,6 +2908,9 @@
       <c r="B79">
         <v>0</v>
       </c>
+      <c r="C79" t="str">
+        <v>-</v>
+      </c>
       <c r="D79" t="str">
         <v>-</v>
       </c>
@@ -2706,6 +2940,9 @@
       <c r="B80">
         <v>0</v>
       </c>
+      <c r="C80" t="str">
+        <v>-</v>
+      </c>
       <c r="D80" t="str">
         <v>-</v>
       </c>
@@ -2735,6 +2972,9 @@
       <c r="B81">
         <v>0</v>
       </c>
+      <c r="C81" t="str">
+        <v>-</v>
+      </c>
       <c r="D81" t="str">
         <v>-</v>
       </c>
@@ -2764,6 +3004,9 @@
       <c r="B82">
         <v>0</v>
       </c>
+      <c r="C82" t="str">
+        <v>-</v>
+      </c>
       <c r="D82" t="str">
         <v>-</v>
       </c>
@@ -2793,6 +3036,9 @@
       <c r="B83">
         <v>0</v>
       </c>
+      <c r="C83" t="str">
+        <v>-</v>
+      </c>
       <c r="D83" t="str">
         <v>-</v>
       </c>
@@ -2821,6 +3067,9 @@
       </c>
       <c r="B84">
         <v>0</v>
+      </c>
+      <c r="C84" t="str">
+        <v>-</v>
       </c>
       <c r="D84" t="str">
         <v>-</v>
@@ -2851,6 +3100,9 @@
       <c r="B85">
         <v>0</v>
       </c>
+      <c r="C85" t="str">
+        <v>-</v>
+      </c>
       <c r="D85" t="str">
         <v>-</v>
       </c>
@@ -2880,6 +3132,9 @@
       <c r="B86">
         <v>0</v>
       </c>
+      <c r="C86" t="str">
+        <v>-</v>
+      </c>
       <c r="D86" t="str">
         <v>-</v>
       </c>
@@ -2908,6 +3163,9 @@
       </c>
       <c r="B87">
         <v>0</v>
+      </c>
+      <c r="C87" t="str">
+        <v>-</v>
       </c>
       <c r="D87" t="str">
         <v>-</v>
@@ -2938,6 +3196,9 @@
       <c r="B88">
         <v>0</v>
       </c>
+      <c r="C88" t="str">
+        <v>-</v>
+      </c>
       <c r="D88" t="str">
         <v>-</v>
       </c>
@@ -2967,6 +3228,9 @@
       <c r="B89">
         <v>0</v>
       </c>
+      <c r="C89" t="str">
+        <v>-</v>
+      </c>
       <c r="D89" t="str">
         <v>-</v>
       </c>
@@ -2995,6 +3259,9 @@
       </c>
       <c r="B90">
         <v>0</v>
+      </c>
+      <c r="C90" t="str">
+        <v>-</v>
       </c>
       <c r="D90" t="str">
         <v>-</v>
@@ -3025,6 +3292,9 @@
       <c r="B91">
         <v>0</v>
       </c>
+      <c r="C91" t="str">
+        <v>-</v>
+      </c>
       <c r="D91" t="str">
         <v>-</v>
       </c>
@@ -3054,6 +3324,9 @@
       <c r="B92">
         <v>0</v>
       </c>
+      <c r="C92" t="str">
+        <v>-</v>
+      </c>
       <c r="D92" t="str">
         <v>-</v>
       </c>
@@ -3083,6 +3356,9 @@
       <c r="B93">
         <v>0</v>
       </c>
+      <c r="C93" t="str">
+        <v>-</v>
+      </c>
       <c r="D93" t="str">
         <v>-</v>
       </c>
@@ -3112,6 +3388,9 @@
       <c r="B94">
         <v>0</v>
       </c>
+      <c r="C94" t="str">
+        <v>-</v>
+      </c>
       <c r="D94" t="str">
         <v>-</v>
       </c>
@@ -3141,6 +3420,9 @@
       <c r="B95">
         <v>0</v>
       </c>
+      <c r="C95" t="str">
+        <v>-</v>
+      </c>
       <c r="D95" t="str">
         <v>-</v>
       </c>
@@ -3170,6 +3452,9 @@
       <c r="B96">
         <v>0</v>
       </c>
+      <c r="C96" t="str">
+        <v>-</v>
+      </c>
       <c r="D96" t="str">
         <v>-</v>
       </c>
@@ -3199,6 +3484,9 @@
       <c r="B97">
         <v>0</v>
       </c>
+      <c r="C97" t="str">
+        <v>-</v>
+      </c>
       <c r="D97" t="str">
         <v>-</v>
       </c>
@@ -3228,6 +3516,9 @@
       <c r="B98">
         <v>0</v>
       </c>
+      <c r="C98" t="str">
+        <v>-</v>
+      </c>
       <c r="D98" t="str">
         <v>-</v>
       </c>
@@ -3257,6 +3548,9 @@
       <c r="B99">
         <v>0</v>
       </c>
+      <c r="C99" t="str">
+        <v>-</v>
+      </c>
       <c r="D99" t="str">
         <v>-</v>
       </c>
@@ -3286,6 +3580,9 @@
       <c r="B100">
         <v>0</v>
       </c>
+      <c r="C100" t="str">
+        <v>-</v>
+      </c>
       <c r="D100" t="str">
         <v>-</v>
       </c>
@@ -3309,11 +3606,14 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101">
-        <v>2024</v>
+      <c r="A101" t="str">
+        <v>2025-06-10</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C101" t="str">
+        <v>-</v>
       </c>
       <c r="D101" t="str">
         <v>9420012425898</v>
@@ -3344,6 +3644,9 @@
       <c r="B102">
         <v>0</v>
       </c>
+      <c r="C102" t="str">
+        <v>-</v>
+      </c>
       <c r="D102" t="str">
         <v>-</v>
       </c>
@@ -3373,6 +3676,9 @@
       <c r="B103">
         <v>0</v>
       </c>
+      <c r="C103" t="str">
+        <v>-</v>
+      </c>
       <c r="D103" t="str">
         <v>-</v>
       </c>
@@ -3402,6 +3708,9 @@
       <c r="B104">
         <v>0</v>
       </c>
+      <c r="C104" t="str">
+        <v>-</v>
+      </c>
       <c r="D104" t="str">
         <v>-</v>
       </c>
@@ -3431,6 +3740,9 @@
       <c r="B105">
         <v>0</v>
       </c>
+      <c r="C105" t="str">
+        <v>-</v>
+      </c>
       <c r="D105" t="str">
         <v>-</v>
       </c>
@@ -3460,6 +3772,9 @@
       <c r="B106">
         <v>0</v>
       </c>
+      <c r="C106" t="str">
+        <v>-</v>
+      </c>
       <c r="D106" t="str">
         <v>-</v>
       </c>
@@ -3489,6 +3804,9 @@
       <c r="B107">
         <v>0</v>
       </c>
+      <c r="C107" t="str">
+        <v>-</v>
+      </c>
       <c r="D107" t="str">
         <v>-</v>
       </c>
@@ -3518,6 +3836,9 @@
       <c r="B108">
         <v>0</v>
       </c>
+      <c r="C108" t="str">
+        <v>-</v>
+      </c>
       <c r="D108" t="str">
         <v>-</v>
       </c>
@@ -3547,6 +3868,9 @@
       <c r="B109">
         <v>0</v>
       </c>
+      <c r="C109" t="str">
+        <v>-</v>
+      </c>
       <c r="D109" t="str">
         <v>-</v>
       </c>
@@ -3576,6 +3900,9 @@
       <c r="B110">
         <v>0</v>
       </c>
+      <c r="C110" t="str">
+        <v>-</v>
+      </c>
       <c r="D110" t="str">
         <v>-</v>
       </c>
@@ -3605,6 +3932,9 @@
       <c r="B111">
         <v>0</v>
       </c>
+      <c r="C111" t="str">
+        <v>-</v>
+      </c>
       <c r="D111" t="str">
         <v>-</v>
       </c>
@@ -3634,6 +3964,9 @@
       <c r="B112">
         <v>0</v>
       </c>
+      <c r="C112" t="str">
+        <v>-</v>
+      </c>
       <c r="D112" t="str">
         <v>-</v>
       </c>
@@ -3663,6 +3996,9 @@
       <c r="B113">
         <v>0</v>
       </c>
+      <c r="C113" t="str">
+        <v>-</v>
+      </c>
       <c r="D113" t="str">
         <v>-</v>
       </c>
@@ -3692,6 +4028,9 @@
       <c r="B114">
         <v>0</v>
       </c>
+      <c r="C114" t="str">
+        <v>-</v>
+      </c>
       <c r="D114" t="str">
         <v>-</v>
       </c>
@@ -3721,6 +4060,9 @@
       <c r="B115">
         <v>0</v>
       </c>
+      <c r="C115" t="str">
+        <v>-</v>
+      </c>
       <c r="D115" t="str">
         <v>-</v>
       </c>
@@ -3749,6 +4091,9 @@
       </c>
       <c r="B116">
         <v>0</v>
+      </c>
+      <c r="C116" t="str">
+        <v>-</v>
       </c>
       <c r="D116" t="str">
         <v>-</v>
@@ -3779,6 +4124,9 @@
       <c r="B117">
         <v>0</v>
       </c>
+      <c r="C117" t="str">
+        <v>-</v>
+      </c>
       <c r="D117" t="str">
         <v>-</v>
       </c>
@@ -3808,6 +4156,9 @@
       <c r="B118">
         <v>0</v>
       </c>
+      <c r="C118" t="str">
+        <v>-</v>
+      </c>
       <c r="D118" t="str">
         <v>-</v>
       </c>
@@ -3837,6 +4188,9 @@
       <c r="B119">
         <v>0</v>
       </c>
+      <c r="C119" t="str">
+        <v>-</v>
+      </c>
       <c r="D119" t="str">
         <v>-</v>
       </c>
@@ -3866,6 +4220,9 @@
       <c r="B120">
         <v>0</v>
       </c>
+      <c r="C120" t="str">
+        <v>-</v>
+      </c>
       <c r="D120" t="str">
         <v>-</v>
       </c>
@@ -3895,6 +4252,9 @@
       <c r="B121">
         <v>0</v>
       </c>
+      <c r="C121" t="str">
+        <v>-</v>
+      </c>
       <c r="D121" t="str">
         <v>-</v>
       </c>
@@ -3924,6 +4284,9 @@
       <c r="B122">
         <v>0</v>
       </c>
+      <c r="C122" t="str">
+        <v>-</v>
+      </c>
       <c r="D122" t="str">
         <v>-</v>
       </c>
@@ -3953,6 +4316,9 @@
       <c r="B123">
         <v>0</v>
       </c>
+      <c r="C123" t="str">
+        <v>-</v>
+      </c>
       <c r="D123" t="str">
         <v>-</v>
       </c>
@@ -3982,6 +4348,9 @@
       <c r="B124">
         <v>0</v>
       </c>
+      <c r="C124" t="str">
+        <v>-</v>
+      </c>
       <c r="D124" t="str">
         <v>-</v>
       </c>
@@ -4011,6 +4380,9 @@
       <c r="B125">
         <v>0</v>
       </c>
+      <c r="C125" t="str">
+        <v>-</v>
+      </c>
       <c r="D125" t="str">
         <v>-</v>
       </c>
@@ -4040,6 +4412,9 @@
       <c r="B126">
         <v>0</v>
       </c>
+      <c r="C126" t="str">
+        <v>-</v>
+      </c>
       <c r="D126" t="str">
         <v>-</v>
       </c>
@@ -4069,6 +4444,9 @@
       <c r="B127">
         <v>0</v>
       </c>
+      <c r="C127" t="str">
+        <v>-</v>
+      </c>
       <c r="D127" t="str">
         <v>-</v>
       </c>
@@ -4098,6 +4476,9 @@
       <c r="B128">
         <v>0</v>
       </c>
+      <c r="C128" t="str">
+        <v>-</v>
+      </c>
       <c r="D128" t="str">
         <v>-</v>
       </c>
@@ -4127,6 +4508,9 @@
       <c r="B129">
         <v>0</v>
       </c>
+      <c r="C129" t="str">
+        <v>-</v>
+      </c>
       <c r="D129" t="str">
         <v>-</v>
       </c>
@@ -4156,6 +4540,9 @@
       <c r="B130">
         <v>0</v>
       </c>
+      <c r="C130" t="str">
+        <v>-</v>
+      </c>
       <c r="D130" t="str">
         <v>-</v>
       </c>
@@ -4184,6 +4571,9 @@
       </c>
       <c r="B131">
         <v>0</v>
+      </c>
+      <c r="C131" t="str">
+        <v>-</v>
       </c>
       <c r="D131" t="str">
         <v>-</v>
@@ -4214,6 +4604,9 @@
       <c r="B132">
         <v>0</v>
       </c>
+      <c r="C132" t="str">
+        <v>-</v>
+      </c>
       <c r="D132" t="str">
         <v>-</v>
       </c>
@@ -4243,6 +4636,9 @@
       <c r="B133">
         <v>0</v>
       </c>
+      <c r="C133" t="str">
+        <v>-</v>
+      </c>
       <c r="D133" t="str">
         <v>-</v>
       </c>
@@ -4271,6 +4667,9 @@
       </c>
       <c r="B134">
         <v>0</v>
+      </c>
+      <c r="C134" t="str">
+        <v>-</v>
       </c>
       <c r="D134" t="str">
         <v>-</v>
@@ -4301,6 +4700,9 @@
       <c r="B135">
         <v>0</v>
       </c>
+      <c r="C135" t="str">
+        <v>-</v>
+      </c>
       <c r="D135" t="str">
         <v>-</v>
       </c>
@@ -4330,6 +4732,9 @@
       <c r="B136">
         <v>0</v>
       </c>
+      <c r="C136" t="str">
+        <v>-</v>
+      </c>
       <c r="D136" t="str">
         <v>-</v>
       </c>
@@ -4359,6 +4764,9 @@
       <c r="B137">
         <v>0</v>
       </c>
+      <c r="C137" t="str">
+        <v>-</v>
+      </c>
       <c r="D137" t="str">
         <v>-</v>
       </c>
@@ -4388,6 +4796,9 @@
       <c r="B138">
         <v>0</v>
       </c>
+      <c r="C138" t="str">
+        <v>-</v>
+      </c>
       <c r="D138" t="str">
         <v>-</v>
       </c>
@@ -4417,6 +4828,9 @@
       <c r="B139">
         <v>0</v>
       </c>
+      <c r="C139" t="str">
+        <v>-</v>
+      </c>
       <c r="D139" t="str">
         <v>-</v>
       </c>
@@ -4446,6 +4860,9 @@
       <c r="B140">
         <v>0</v>
       </c>
+      <c r="C140" t="str">
+        <v>-</v>
+      </c>
       <c r="D140" t="str">
         <v>-</v>
       </c>
@@ -4475,6 +4892,9 @@
       <c r="B141">
         <v>0</v>
       </c>
+      <c r="C141" t="str">
+        <v>-</v>
+      </c>
       <c r="D141" t="str">
         <v>-</v>
       </c>
@@ -4497,26 +4917,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>2025-06-09</v>
-      </c>
-      <c r="B142">
-        <v>7</v>
-      </c>
-      <c r="C142" t="str">
-        <v>ESON Nasal Mask</v>
-      </c>
-      <c r="D142" t="str">
-        <v>9420012425898</v>
-      </c>
-      <c r="E142" t="str">
-        <v>L</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J142"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J141"/>
   </ignoredErrors>
 </worksheet>
 </file>